--- a/Activity 1 (Tidy).xlsx
+++ b/Activity 1 (Tidy).xlsx
@@ -5,18 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveharperac-my.sharepoint.com/personal/jroberts_harper-adams_ac_uk/Documents/R Projects/HARUG/2020.04.15/Materials/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveharperac-my.sharepoint.com/personal/jroberts_harper-adams_ac_uk/Documents/R Projects/HARUG/2020.04.15/HARUG_Tidy_Tuesday/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="8_{0702BFC9-C56F-A54D-89E5-262F0E6D9571}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{82505FF4-FF9C-8749-9C3D-BF3DA78CD771}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="8_{EDFD8005-6EA5-C542-89CC-785EB5569A11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{59ADB175-F028-CC4F-950B-5C8229E75962}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" xr2:uid="{A277EF6B-06B2-41C0-81E1-D26573684ADC}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28420" windowHeight="16400" xr2:uid="{BCCE1FCA-2BAF-F54B-9CEA-8710C3882958}"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="2" r:id="rId1"/>
-    <sheet name="Data dictionary" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,20 +33,26 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="40">
-  <si>
-    <t>Sample</t>
-  </si>
-  <si>
-    <t>RT</t>
-  </si>
-  <si>
-    <t>Sample ID</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="29">
+  <si>
+    <t>sample_ID</t>
+  </si>
+  <si>
+    <t>sample</t>
+  </si>
+  <si>
+    <t>species</t>
   </si>
   <si>
     <t>CG19-14</t>
   </si>
   <si>
+    <t>Plant</t>
+  </si>
+  <si>
+    <t>Brevicoryne</t>
+  </si>
+  <si>
     <t>CG19-23</t>
   </si>
   <si>
@@ -57,12 +62,39 @@
     <t>CG19-09</t>
   </si>
   <si>
+    <t>Myzus</t>
+  </si>
+  <si>
     <t>CG19-13</t>
   </si>
   <si>
     <t>CG19-26</t>
   </si>
   <si>
+    <t>CG19-28</t>
+  </si>
+  <si>
+    <t>AD+SA</t>
+  </si>
+  <si>
+    <t>CG19-31</t>
+  </si>
+  <si>
+    <t>CG19-34</t>
+  </si>
+  <si>
+    <t>CG19-30</t>
+  </si>
+  <si>
+    <t>AD-SA</t>
+  </si>
+  <si>
+    <t>CG19-32</t>
+  </si>
+  <si>
+    <t>CG19-33</t>
+  </si>
+  <si>
     <t>CG19-15</t>
   </si>
   <si>
@@ -72,22 +104,13 @@
     <t>CG19-22</t>
   </si>
   <si>
-    <t>CG19-31</t>
-  </si>
-  <si>
-    <t>CG19-34</t>
-  </si>
-  <si>
-    <t>CG19-28</t>
-  </si>
-  <si>
-    <t>sample_ID</t>
-  </si>
-  <si>
-    <t>species</t>
-  </si>
-  <si>
-    <t>sample</t>
+    <t>CG19-17</t>
+  </si>
+  <si>
+    <t>CG19-20</t>
+  </si>
+  <si>
+    <t>CG19-21</t>
   </si>
   <si>
     <t>rt</t>
@@ -97,63 +120,6 @@
   </si>
   <si>
     <t>concentration</t>
-  </si>
-  <si>
-    <t>AD+SA</t>
-  </si>
-  <si>
-    <t>Brevicoryne</t>
-  </si>
-  <si>
-    <t>Myzus</t>
-  </si>
-  <si>
-    <t>Peak area</t>
-  </si>
-  <si>
-    <t>Conc</t>
-  </si>
-  <si>
-    <t>Unique identifying code</t>
-  </si>
-  <si>
-    <t>Peak area of beta-farnesene (measured using GC-MS)</t>
-  </si>
-  <si>
-    <t>beta-farnesene retention time on gas chromatograph-mass spectrometer (GC-MS)</t>
-  </si>
-  <si>
-    <t>Concentration of beta-farnesene in nanograms - calculated using a pure standard (sample CG19-05)</t>
-  </si>
-  <si>
-    <t>Aphid species and their diet. Plant = plant; AD + SA = artificial diet with added sodium acetate; AD - SA = artificial diet without added sodium acetate</t>
-  </si>
-  <si>
-    <t>CG19-30</t>
-  </si>
-  <si>
-    <t>CG19-32</t>
-  </si>
-  <si>
-    <t>CG19-33</t>
-  </si>
-  <si>
-    <t>CG19-17</t>
-  </si>
-  <si>
-    <t>CG19-20</t>
-  </si>
-  <si>
-    <t>CG19-21</t>
-  </si>
-  <si>
-    <t>Plant</t>
-  </si>
-  <si>
-    <t>AD-SA</t>
-  </si>
-  <si>
-    <t>N/A</t>
   </si>
 </sst>
 </file>
@@ -161,19 +127,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="181" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -200,46 +158,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -553,37 +474,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32E13FA8-FB0A-9A4C-9376-E7F338824E6F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D949195-8723-1B40-A44A-AB81B59CAB6F}">
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="10.83203125" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -591,600 +512,360 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="13">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1">
         <v>16.247</v>
       </c>
       <c r="E2">
         <v>154123</v>
       </c>
-      <c r="F2" s="8">
-        <v>9.3757568949815511</v>
+      <c r="F2">
+        <v>9.4</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>37</v>
-      </c>
       <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="13">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1">
         <v>16.239999999999998</v>
       </c>
       <c r="E3">
         <v>77839</v>
       </c>
-      <c r="F3" s="8">
-        <v>4.7351760668327829</v>
+      <c r="F3">
+        <v>4.7</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="13">
+      <c r="D4" s="1">
         <v>16.242999999999999</v>
       </c>
       <c r="E4">
         <v>204238</v>
       </c>
-      <c r="F4" s="8">
-        <v>12.424400230447384</v>
+      <c r="F4">
+        <v>12.4</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="13">
+        <v>9</v>
+      </c>
+      <c r="D5" s="1">
         <v>16.241</v>
       </c>
       <c r="E5">
         <v>4783237</v>
       </c>
-      <c r="F5" s="8">
-        <v>290.97842167023009</v>
+      <c r="F5">
+        <v>290.89999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="13">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1">
         <v>16.245000000000001</v>
       </c>
       <c r="E6">
         <v>2653330</v>
       </c>
-      <c r="F6" s="8">
-        <v>161.40989367038924</v>
+      <c r="F6">
+        <v>161.4</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="13">
+        <v>9</v>
+      </c>
+      <c r="D7" s="1">
         <v>16.239999999999998</v>
       </c>
       <c r="E7">
         <v>3224152</v>
       </c>
-      <c r="F7" s="8">
-        <v>196.13468038169879</v>
+      <c r="F7">
+        <v>196.1</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="13">
+        <v>5</v>
+      </c>
+      <c r="D8" s="1">
         <v>16.239999999999998</v>
       </c>
       <c r="E8">
         <v>295414</v>
       </c>
-      <c r="F8" s="8">
-        <v>17.970905363729489</v>
+      <c r="F8">
+        <v>17.899999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="13">
+        <v>5</v>
+      </c>
+      <c r="D9" s="1">
         <v>16.239999999999998</v>
       </c>
       <c r="E9">
         <v>298222</v>
       </c>
-      <c r="F9" s="8">
-        <v>18.141724289919015</v>
+      <c r="F9">
+        <v>18.100000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
         <v>13</v>
       </c>
-      <c r="B10" t="s">
-        <v>21</v>
-      </c>
       <c r="C10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="13">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1">
         <v>16.242000000000001</v>
       </c>
       <c r="E10">
         <v>192785</v>
       </c>
-      <c r="F10" s="8">
-        <v>11.727680443535478</v>
+      <c r="F10">
+        <v>11.72</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>39</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="D11" s="1"/>
       <c r="E11">
         <v>0</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="13">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1">
         <v>16.238</v>
       </c>
       <c r="E12">
         <v>33358</v>
       </c>
-      <c r="F12" s="8">
-        <v>2.0292655768626009</v>
+      <c r="F12">
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="14">
+        <v>5</v>
+      </c>
+      <c r="D13" s="1">
         <v>16.236999999999998</v>
       </c>
       <c r="E13">
         <v>34018</v>
       </c>
-      <c r="F13" s="8">
-        <v>2.0694153244712497</v>
+      <c r="F13">
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
         <v>9</v>
       </c>
-      <c r="B14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="14">
+      <c r="D14" s="1">
         <v>16.242999999999999</v>
       </c>
       <c r="E14">
         <v>4034920</v>
       </c>
-      <c r="F14" s="8">
-        <v>245.45609033498545</v>
+      <c r="F14">
+        <v>245.5</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="14">
+        <v>9</v>
+      </c>
+      <c r="D15" s="1">
         <v>16.242000000000001</v>
       </c>
       <c r="E15">
         <v>2442438</v>
       </c>
-      <c r="F15" s="8">
-        <v>148.58071098450557</v>
+      <c r="F15">
+        <v>148.6</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="14">
+        <v>9</v>
+      </c>
+      <c r="D16" s="1">
         <v>16.242000000000001</v>
       </c>
       <c r="E16">
         <v>5650064</v>
       </c>
-      <c r="F16" s="8">
-        <v>343.71006601926416</v>
+      <c r="F16">
+        <v>343.7</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="14">
+        <v>9</v>
+      </c>
+      <c r="D17" s="1">
         <v>16.242000000000001</v>
       </c>
       <c r="E17">
         <v>51450</v>
       </c>
-      <c r="F17" s="8">
-        <v>3.1298553249469636</v>
+      <c r="F17">
+        <v>3.1</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="14">
+        <v>9</v>
+      </c>
+      <c r="D18" s="1">
         <v>16.242000000000001</v>
       </c>
       <c r="E18">
         <v>846354</v>
       </c>
-      <c r="F18" s="8">
-        <v>51.486211344803934</v>
+      <c r="F18">
+        <v>51.5</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="14">
+        <v>9</v>
+      </c>
+      <c r="D19" s="1">
         <v>16.244</v>
       </c>
       <c r="E19">
         <v>110176</v>
       </c>
-      <c r="F19" s="8">
-        <v>6.7023312008038216</v>
+      <c r="F19">
+        <v>6.7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0239DDD-B257-47F4-9C55-F5B88CC1DDBB}">
-  <dimension ref="A1:M24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="8.6640625" style="5"/>
-    <col min="2" max="2" width="9.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="8.6640625" style="5"/>
-    <col min="11" max="11" width="18.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.6640625" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="10"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="11"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="1"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="1"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="1"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="1"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B24:C24"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Activity 1 (Tidy).xlsx
+++ b/Activity 1 (Tidy).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveharperac-my.sharepoint.com/personal/jroberts_harper-adams_ac_uk/Documents/R Projects/HARUG/2020.04.15/HARUG_Tidy_Tuesday/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="8_{EDFD8005-6EA5-C542-89CC-785EB5569A11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{59ADB175-F028-CC4F-950B-5C8229E75962}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="8_{EDFD8005-6EA5-C542-89CC-785EB5569A11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{868BDA5C-2447-E941-8C0E-D24ED05CA229}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28420" windowHeight="16400" xr2:uid="{BCCE1FCA-2BAF-F54B-9CEA-8710C3882958}"/>
   </bookViews>
@@ -127,7 +127,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="181" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -160,7 +160,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -478,7 +478,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -684,7 +684,7 @@
         <v>192785</v>
       </c>
       <c r="F10">
-        <v>11.72</v>
+        <v>11.7</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
